--- a/Budget_Comparison.xlsx
+++ b/Budget_Comparison.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="148">
   <si>
     <t>Num</t>
   </si>
@@ -301,6 +301,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>CEP Solar LLC:2234 NB - Dynamic model package for BESS project in PJM RRI TC2 cluster</t>
+  </si>
+  <si>
     <t>Clariant Power Systems Ltd:2218 NB - STATCOM PSCAD &amp; PSSE model development and benchmarking</t>
   </si>
   <si>
@@ -367,6 +370,9 @@
     <t>GSMT-Enerzinx Australia JV Pty Ltd:2228 B - Vertiv UPS PSCAD Model RFI</t>
   </si>
   <si>
+    <t>GSMT-Enerzinx Australia JV Pty Ltd:2236 NB - PXiSE PSSE UDM Model Update</t>
+  </si>
+  <si>
     <t>JSW Energy Limited:2206NB- 540MW Wind Project, Tuticorin-Review of reactive power capability study</t>
   </si>
   <si>
@@ -392,6 +398,12 @@
   </si>
   <si>
     <t>Q Cells USA Corporation:2190 NB - Bracero Pecan Storage-update the PSSE Dynamics &amp; verify NOGRR-245</t>
+  </si>
+  <si>
+    <t>SunRaycer LLC:2227 B - Marcelina Storage - Generator Interconnection Application Package</t>
+  </si>
+  <si>
+    <t>SunRaycer LLC:2229 B - Eagles Springs - Generator Interconnection Application Package</t>
   </si>
   <si>
     <t>Tata Power:2195 NB - Restudy - TP Saurya SECI 300 MW Project - Koppal</t>
@@ -837,7 +849,7 @@
         <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D2">
         <v>100</v>
@@ -846,7 +858,7 @@
         <v>7200</v>
       </c>
       <c r="F2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -857,16 +869,16 @@
         <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D3">
-        <v>3756.2499925</v>
+        <v>12681.2499925</v>
       </c>
       <c r="E3">
         <v>10000</v>
       </c>
       <c r="F3" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -877,7 +889,7 @@
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D4">
         <v>7212.5</v>
@@ -886,7 +898,7 @@
         <v>8500</v>
       </c>
       <c r="F4" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -897,16 +909,16 @@
         <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D5">
-        <v>23062.5</v>
+        <v>23437.5</v>
       </c>
       <c r="E5">
         <v>20000</v>
       </c>
       <c r="F5" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -917,7 +929,7 @@
         <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D6">
         <v>4412.5</v>
@@ -926,7 +938,7 @@
         <v>7400</v>
       </c>
       <c r="F6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -937,16 +949,16 @@
         <v>78</v>
       </c>
       <c r="C7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D7">
-        <v>15500</v>
+        <v>27900</v>
       </c>
       <c r="E7">
         <v>24000</v>
       </c>
       <c r="F7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -957,7 +969,7 @@
         <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D8">
         <v>12012.5</v>
@@ -966,7 +978,7 @@
         <v>7400</v>
       </c>
       <c r="F8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -977,7 +989,7 @@
         <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D9">
         <v>5100</v>
@@ -986,7 +998,7 @@
         <v>7400</v>
       </c>
       <c r="F9" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -997,16 +1009,16 @@
         <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D10">
-        <v>25300</v>
+        <v>25668.75</v>
       </c>
       <c r="E10">
         <v>7400</v>
       </c>
       <c r="F10" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1017,7 +1029,7 @@
         <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D11">
         <v>7254.166670000001</v>
@@ -1026,7 +1038,7 @@
         <v>7400</v>
       </c>
       <c r="F11" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1037,7 +1049,7 @@
         <v>83</v>
       </c>
       <c r="C12" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D12">
         <v>6400</v>
@@ -1046,7 +1058,7 @@
         <v>10000</v>
       </c>
       <c r="F12" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1057,16 +1069,16 @@
         <v>84</v>
       </c>
       <c r="C13" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D13">
-        <v>7550.0000075</v>
+        <v>10332.500015</v>
       </c>
       <c r="E13">
         <v>5000</v>
       </c>
       <c r="F13" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1077,7 +1089,7 @@
         <v>85</v>
       </c>
       <c r="C14" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D14">
         <v>3387.5</v>
@@ -1086,7 +1098,7 @@
         <v>3500</v>
       </c>
       <c r="F14" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1097,7 +1109,7 @@
         <v>86</v>
       </c>
       <c r="C15" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D15">
         <v>10700</v>
@@ -1106,7 +1118,7 @@
         <v>3500</v>
       </c>
       <c r="F15" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1117,7 +1129,7 @@
         <v>87</v>
       </c>
       <c r="C16" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D16">
         <v>4549.9999925</v>
@@ -1126,7 +1138,7 @@
         <v>11700</v>
       </c>
       <c r="F16" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1137,7 +1149,7 @@
         <v>88</v>
       </c>
       <c r="C17" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D17">
         <v>6850</v>
@@ -1146,7 +1158,7 @@
         <v>4000</v>
       </c>
       <c r="F17" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1157,7 +1169,7 @@
         <v>89</v>
       </c>
       <c r="C18" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D18">
         <v>13187.5</v>
@@ -1166,7 +1178,7 @@
         <v>8000</v>
       </c>
       <c r="F18" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1177,16 +1189,16 @@
         <v>90</v>
       </c>
       <c r="C19" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D19">
-        <v>6362.5</v>
+        <v>16362.5</v>
       </c>
       <c r="E19">
         <v>27557.54</v>
       </c>
       <c r="F19" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1197,16 +1209,16 @@
         <v>91</v>
       </c>
       <c r="C20" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D20">
-        <v>16408.333325</v>
+        <v>19308.333325</v>
       </c>
       <c r="E20">
         <v>27557.54</v>
       </c>
       <c r="F20" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1217,16 +1229,16 @@
         <v>92</v>
       </c>
       <c r="C21" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D21">
-        <v>3575</v>
+        <v>13550</v>
       </c>
       <c r="E21">
         <v>32676.92</v>
       </c>
       <c r="F21" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1237,16 +1249,16 @@
         <v>93</v>
       </c>
       <c r="C22" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D22">
-        <v>4650</v>
+        <v>6850</v>
       </c>
       <c r="E22">
         <v>30000</v>
       </c>
       <c r="F22" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1263,7 +1275,7 @@
         <v>8000</v>
       </c>
       <c r="F23" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1271,19 +1283,19 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C24" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>4362.5</v>
       </c>
       <c r="E24">
         <v>7800</v>
       </c>
       <c r="F24" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1291,10 +1303,10 @@
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C25" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D25">
         <v>2375</v>
@@ -1303,7 +1315,7 @@
         <v>12036</v>
       </c>
       <c r="F25" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1311,10 +1323,10 @@
         <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C26" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D26">
         <v>4325</v>
@@ -1323,7 +1335,7 @@
         <v>5000</v>
       </c>
       <c r="F26" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1331,7 +1343,7 @@
         <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D27">
         <v>1725</v>
@@ -1340,7 +1352,7 @@
         <v>4000</v>
       </c>
       <c r="F27" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1348,10 +1360,10 @@
         <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C28" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D28">
         <v>4575</v>
@@ -1360,7 +1372,7 @@
         <v>9500</v>
       </c>
       <c r="F28" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1368,10 +1380,10 @@
         <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C29" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D29">
         <v>8887.5</v>
@@ -1380,7 +1392,7 @@
         <v>9500</v>
       </c>
       <c r="F29" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1388,10 +1400,10 @@
         <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C30" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D30">
         <v>5600</v>
@@ -1400,7 +1412,7 @@
         <v>9500</v>
       </c>
       <c r="F30" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1408,19 +1420,19 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C31" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D31">
-        <v>5862.5</v>
+        <v>5925</v>
       </c>
       <c r="E31">
         <v>9500</v>
       </c>
       <c r="F31" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1428,19 +1440,19 @@
         <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C32" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D32">
-        <v>5675</v>
+        <v>6525</v>
       </c>
       <c r="E32">
         <v>9500</v>
       </c>
       <c r="F32" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1448,19 +1460,19 @@
         <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C33" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D33">
-        <v>6450</v>
+        <v>9300</v>
       </c>
       <c r="E33">
         <v>4200</v>
       </c>
       <c r="F33" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1468,16 +1480,16 @@
         <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34">
-        <v>5200</v>
+        <v>6700</v>
       </c>
       <c r="E34">
         <v>4200</v>
       </c>
       <c r="F34" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1485,19 +1497,19 @@
         <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C35" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D35">
-        <v>4100</v>
+        <v>7275</v>
       </c>
       <c r="E35">
         <v>8900</v>
       </c>
       <c r="F35" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1505,19 +1517,19 @@
         <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C36" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D36">
-        <v>62.5</v>
+        <v>925</v>
       </c>
       <c r="E36">
         <v>2000</v>
       </c>
       <c r="F36" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1525,10 +1537,10 @@
         <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C37" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D37">
         <v>125</v>
@@ -1537,7 +1549,7 @@
         <v>2500</v>
       </c>
       <c r="F37" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1545,10 +1557,10 @@
         <v>42</v>
       </c>
       <c r="B38" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C38" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D38">
         <v>5112.5</v>
@@ -1557,7 +1569,7 @@
         <v>11000</v>
       </c>
       <c r="F38" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1565,19 +1577,19 @@
         <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C39" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D39">
-        <v>3900</v>
+        <v>7925</v>
       </c>
       <c r="E39">
         <v>7800</v>
       </c>
       <c r="F39" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1585,19 +1597,19 @@
         <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C40" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D40">
-        <v>3287.5</v>
+        <v>3950</v>
       </c>
       <c r="E40">
         <v>7800</v>
       </c>
       <c r="F40" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1605,19 +1617,19 @@
         <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C41" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D41">
-        <v>7775</v>
+        <v>8175</v>
       </c>
       <c r="E41">
         <v>7800</v>
       </c>
       <c r="F41" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1625,19 +1637,19 @@
         <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C42" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D42">
-        <v>4837.5</v>
+        <v>5125</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1645,7 +1657,7 @@
         <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D43">
         <v>9700</v>
@@ -1654,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1665,7 +1677,7 @@
         <v>94</v>
       </c>
       <c r="C44" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1674,7 +1686,7 @@
         <v>7500</v>
       </c>
       <c r="F44" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1682,19 +1694,19 @@
         <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C45" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D45">
-        <v>25350</v>
+        <v>26250</v>
       </c>
       <c r="E45">
         <v>50800</v>
       </c>
       <c r="F45" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1702,10 +1714,10 @@
         <v>50</v>
       </c>
       <c r="B46" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C46" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D46">
         <v>11482.5</v>
@@ -1714,7 +1726,7 @@
         <v>16368</v>
       </c>
       <c r="F46" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1722,19 +1734,19 @@
         <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C47" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D47">
-        <v>562.5</v>
+        <v>1225</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1742,16 +1754,16 @@
         <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="E48">
         <v>3185.73</v>
       </c>
       <c r="F48" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1762,7 +1774,7 @@
         <v>94</v>
       </c>
       <c r="C49" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -1771,7 +1783,7 @@
         <v>42000</v>
       </c>
       <c r="F49" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1779,10 +1791,10 @@
         <v>54</v>
       </c>
       <c r="B50" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C50" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D50">
         <v>4950</v>
@@ -1791,7 +1803,7 @@
         <v>2059.77</v>
       </c>
       <c r="F50" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1799,19 +1811,19 @@
         <v>55</v>
       </c>
       <c r="B51" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C51" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D51">
-        <v>6725</v>
+        <v>7075</v>
       </c>
       <c r="E51">
         <v>6000</v>
       </c>
       <c r="F51" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1819,19 +1831,19 @@
         <v>56</v>
       </c>
       <c r="B52" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C52" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D52">
-        <v>16656.2499925</v>
+        <v>18756.2499925</v>
       </c>
       <c r="E52">
         <v>6400</v>
       </c>
       <c r="F52" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1839,10 +1851,10 @@
         <v>57</v>
       </c>
       <c r="B53" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C53" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D53">
         <v>56.25</v>
@@ -1851,7 +1863,7 @@
         <v>20000</v>
       </c>
       <c r="F53" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1859,19 +1871,19 @@
         <v>58</v>
       </c>
       <c r="B54" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C54" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D54">
-        <v>2450</v>
+        <v>7062.5</v>
       </c>
       <c r="E54">
         <v>27000</v>
       </c>
       <c r="F54" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1882,7 +1894,7 @@
         <v>94</v>
       </c>
       <c r="C55" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -1891,7 +1903,7 @@
         <v>10000</v>
       </c>
       <c r="F55" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1899,10 +1911,10 @@
         <v>60</v>
       </c>
       <c r="B56" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C56" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D56">
         <v>2600</v>
@@ -1911,7 +1923,7 @@
         <v>2000</v>
       </c>
       <c r="F56" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1919,10 +1931,10 @@
         <v>61</v>
       </c>
       <c r="B57" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C57" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D57">
         <v>2700</v>
@@ -1931,7 +1943,7 @@
         <v>6000</v>
       </c>
       <c r="F57" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1939,19 +1951,19 @@
         <v>62</v>
       </c>
       <c r="B58" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C58" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D58">
-        <v>16100</v>
+        <v>21425</v>
       </c>
       <c r="E58">
         <v>38000</v>
       </c>
       <c r="F58" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1959,19 +1971,19 @@
         <v>63</v>
       </c>
       <c r="B59" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C59" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D59">
-        <v>9737.5</v>
+        <v>9787.5</v>
       </c>
       <c r="E59">
         <v>8500</v>
       </c>
       <c r="F59" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1982,7 +1994,7 @@
         <v>94</v>
       </c>
       <c r="C60" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -1991,7 +2003,7 @@
         <v>80004</v>
       </c>
       <c r="F60" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1999,19 +2011,19 @@
         <v>65</v>
       </c>
       <c r="B61" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="C61" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>568.75</v>
       </c>
       <c r="E61">
         <v>35200</v>
       </c>
       <c r="F61" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2019,19 +2031,19 @@
         <v>66</v>
       </c>
       <c r="B62" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="C62" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>212.5</v>
       </c>
       <c r="E62">
         <v>40100</v>
       </c>
       <c r="F62" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2039,10 +2051,10 @@
         <v>67</v>
       </c>
       <c r="B63" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C63" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D63">
         <v>50450</v>
@@ -2051,7 +2063,7 @@
         <v>14953.87</v>
       </c>
       <c r="F63" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2059,19 +2071,19 @@
         <v>68</v>
       </c>
       <c r="B64" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C64" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D64">
-        <v>33250</v>
+        <v>36050</v>
       </c>
       <c r="E64">
         <v>14142.34</v>
       </c>
       <c r="F64" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2079,10 +2091,10 @@
         <v>69</v>
       </c>
       <c r="B65" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C65" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D65">
         <v>13450</v>
@@ -2091,7 +2103,7 @@
         <v>9500</v>
       </c>
       <c r="F65" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2099,10 +2111,10 @@
         <v>70</v>
       </c>
       <c r="B66" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C66" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D66">
         <v>3462.5</v>
@@ -2111,7 +2123,7 @@
         <v>9500</v>
       </c>
       <c r="F66" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2119,19 +2131,19 @@
         <v>71</v>
       </c>
       <c r="B67" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C67" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D67">
-        <v>8812.5</v>
+        <v>8912.5</v>
       </c>
       <c r="E67">
         <v>5000</v>
       </c>
       <c r="F67" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2139,19 +2151,19 @@
         <v>72</v>
       </c>
       <c r="B68" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C68" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D68">
-        <v>12875</v>
+        <v>13125</v>
       </c>
       <c r="E68">
         <v>7800</v>
       </c>
       <c r="F68" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/Budget_Comparison.xlsx
+++ b/Budget_Comparison.xlsx
@@ -872,7 +872,7 @@
         <v>136</v>
       </c>
       <c r="D3">
-        <v>12681.2499925</v>
+        <v>13931.2499925</v>
       </c>
       <c r="E3">
         <v>10000</v>
@@ -912,7 +912,7 @@
         <v>137</v>
       </c>
       <c r="D5">
-        <v>23437.5</v>
+        <v>23537.5</v>
       </c>
       <c r="E5">
         <v>20000</v>
@@ -1012,7 +1012,7 @@
         <v>138</v>
       </c>
       <c r="D10">
-        <v>25668.75</v>
+        <v>25468.75</v>
       </c>
       <c r="E10">
         <v>7400</v>
@@ -1192,7 +1192,7 @@
         <v>138</v>
       </c>
       <c r="D19">
-        <v>16362.5</v>
+        <v>16562.5</v>
       </c>
       <c r="E19">
         <v>27557.54</v>
@@ -1212,7 +1212,7 @@
         <v>136</v>
       </c>
       <c r="D20">
-        <v>19308.333325</v>
+        <v>18908.333325</v>
       </c>
       <c r="E20">
         <v>27557.54</v>
@@ -1232,7 +1232,7 @@
         <v>139</v>
       </c>
       <c r="D21">
-        <v>13550</v>
+        <v>13825</v>
       </c>
       <c r="E21">
         <v>32676.92</v>
@@ -1289,7 +1289,7 @@
         <v>136</v>
       </c>
       <c r="D24">
-        <v>4362.5</v>
+        <v>4412.5</v>
       </c>
       <c r="E24">
         <v>7800</v>
@@ -1446,7 +1446,7 @@
         <v>138</v>
       </c>
       <c r="D32">
-        <v>6525</v>
+        <v>6925</v>
       </c>
       <c r="E32">
         <v>9500</v>
@@ -1523,7 +1523,7 @@
         <v>138</v>
       </c>
       <c r="D36">
-        <v>925</v>
+        <v>1525</v>
       </c>
       <c r="E36">
         <v>2000</v>
@@ -1583,7 +1583,7 @@
         <v>138</v>
       </c>
       <c r="D39">
-        <v>7925</v>
+        <v>8125</v>
       </c>
       <c r="E39">
         <v>7800</v>
@@ -1603,7 +1603,7 @@
         <v>138</v>
       </c>
       <c r="D40">
-        <v>3950</v>
+        <v>7150</v>
       </c>
       <c r="E40">
         <v>7800</v>
@@ -1623,13 +1623,13 @@
         <v>143</v>
       </c>
       <c r="D41">
-        <v>8175</v>
+        <v>7775</v>
       </c>
       <c r="E41">
         <v>7800</v>
       </c>
       <c r="F41" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1643,7 +1643,7 @@
         <v>144</v>
       </c>
       <c r="D42">
-        <v>5125</v>
+        <v>7925</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1957,7 +1957,7 @@
         <v>138</v>
       </c>
       <c r="D58">
-        <v>21425</v>
+        <v>21625</v>
       </c>
       <c r="E58">
         <v>38000</v>
@@ -2017,7 +2017,7 @@
         <v>139</v>
       </c>
       <c r="D61">
-        <v>568.75</v>
+        <v>706.25</v>
       </c>
       <c r="E61">
         <v>35200</v>
@@ -2037,7 +2037,7 @@
         <v>136</v>
       </c>
       <c r="D62">
-        <v>212.5</v>
+        <v>362.5</v>
       </c>
       <c r="E62">
         <v>40100</v>
@@ -2077,7 +2077,7 @@
         <v>139</v>
       </c>
       <c r="D64">
-        <v>36050</v>
+        <v>36950</v>
       </c>
       <c r="E64">
         <v>14142.34</v>

--- a/Budget_Comparison.xlsx
+++ b/Budget_Comparison.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="150">
   <si>
     <t>Num</t>
   </si>
@@ -298,69 +298,72 @@
     <t>Apex Clean Energy Holdings:2189 NB - Downeast Wind (QP760) project in the ISONE footprint</t>
   </si>
   <si>
+    <t>Century Solar Holdings:2235NB -Interconnection application package for Solar + BESS project in SOCCO</t>
+  </si>
+  <si>
+    <t>CEP Solar LLC:2234 NB - Dynamic model package for BESS project in PJM RRI TC2 cluster</t>
+  </si>
+  <si>
+    <t>Clariant Power Systems Ltd:2218 NB - STATCOM PSCAD &amp; PSSE model development and benchmarking</t>
+  </si>
+  <si>
+    <t>Clean Shift Energy LLC:2183 B Keeneland Solar-Temple Hill interconnection-Review facilities study</t>
+  </si>
+  <si>
+    <t>Costen Solar Inc:2230B Queue point support-Briel Farm Solar, Gardy´s Mill and Springfield Solar</t>
+  </si>
+  <si>
+    <t>DESRI Development, LLC:2208 NB - DBR Texas - Interconnection application support in the SPP footprint</t>
+  </si>
+  <si>
+    <t>DESRI Development, LLC:2209 NB - DBR New Mexico - Interconnection application support in SPP footprint</t>
+  </si>
+  <si>
+    <t>DESRI Development, LLC:2210 NB - ISS New Mexico - Interconnection application support in SPP footprint</t>
+  </si>
+  <si>
+    <t>DESRI Development, LLC:2211 NB - Noble- Interconnection application support in the SPP footprint</t>
+  </si>
+  <si>
+    <t>DESRI Development, LLC:2212 NB - Jeffrey - Interconnection application support in the SPP footprint</t>
+  </si>
+  <si>
+    <t>DESRI Development, LLC:2216NB - Horn shadow Solar (I) 100MW - Interconnection support</t>
+  </si>
+  <si>
+    <t>DESRI Development, LLC:2217 NB - Horn Shadow (2) - 200 MW - Interconnection support</t>
+  </si>
+  <si>
+    <t>DESRI Development, LLC:2232 NB - Highland-Generic PSSE equivalent model development for BESS in PJM</t>
+  </si>
+  <si>
+    <t>DistEnergy:2231NB Change in ksubstation design for Q1213</t>
+  </si>
+  <si>
+    <t>Emeren US, LLC:2172 NB - Orosi, Penn Valley, Bald Rock Energy (CO) - Inverter Based Resource</t>
+  </si>
+  <si>
+    <t>Energix EPC US LLC:2181 NB - Interconnection support for Gladys Solar project in the PJM footprint.</t>
+  </si>
+  <si>
+    <t>Energix EPC US LLC:2220 - Waverly East - 85.43MW- Update plant level PSSE model</t>
+  </si>
+  <si>
+    <t>Energix EPC US LLC:2221 - Waverly West - 63.82MW - Update plant level PSSE model</t>
+  </si>
+  <si>
+    <t>energyRe Services, LLC:2213NB - Barn Perch-Dynamic model package for a Solar project in PJM footprint</t>
+  </si>
+  <si>
+    <t>Enerzinx LLC:2222B - IEEE2800 Guidelines Compliance by utilities</t>
+  </si>
+  <si>
+    <t>Enerzinx LLC:2223 B - SSAT Tool Research</t>
+  </si>
+  <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>CEP Solar LLC:2234 NB - Dynamic model package for BESS project in PJM RRI TC2 cluster</t>
-  </si>
-  <si>
-    <t>Clariant Power Systems Ltd:2218 NB - STATCOM PSCAD &amp; PSSE model development and benchmarking</t>
-  </si>
-  <si>
-    <t>Clean Shift Energy LLC:2183 B Keeneland Solar-Temple Hill interconnection-Review facilities study</t>
-  </si>
-  <si>
-    <t>Costen Solar Inc:2230B Queue point support-Briel Farm Solar, Gardy´s Mill and Springfield Solar</t>
-  </si>
-  <si>
-    <t>DESRI Development, LLC:2208 NB - DBR Texas - Interconnection application support in the SPP footprint</t>
-  </si>
-  <si>
-    <t>DESRI Development, LLC:2209 NB - DBR New Mexico - Interconnection application support in SPP footprint</t>
-  </si>
-  <si>
-    <t>DESRI Development, LLC:2210 NB - ISS New Mexico - Interconnection application support in SPP footprint</t>
-  </si>
-  <si>
-    <t>DESRI Development, LLC:2211 NB - Noble- Interconnection application support in the SPP footprint</t>
-  </si>
-  <si>
-    <t>DESRI Development, LLC:2212 NB - Jeffrey - Interconnection application support in the SPP footprint</t>
-  </si>
-  <si>
-    <t>DESRI Development, LLC:2216NB - Horn shadow Solar (I) 100MW - Interconnection support</t>
-  </si>
-  <si>
-    <t>DESRI Development, LLC:2217 NB - Horn Shadow (2) - 200 MW - Interconnection support</t>
-  </si>
-  <si>
-    <t>DESRI Development, LLC:2232 NB - Highland-Generic PSSE equivalent model development for BESS in PJM</t>
-  </si>
-  <si>
-    <t>DistEnergy:2231NB Change in ksubstation design for Q1213</t>
-  </si>
-  <si>
-    <t>Emeren US, LLC:2172 NB - Orosi, Penn Valley, Bald Rock Energy (CO) - Inverter Based Resource</t>
-  </si>
-  <si>
-    <t>Energix EPC US LLC:2181 NB - Interconnection support for Gladys Solar project in the PJM footprint.</t>
-  </si>
-  <si>
-    <t>Energix EPC US LLC:2220 NB - Waverly East - 85.43MW- Update plant level PSSE model</t>
-  </si>
-  <si>
-    <t>Energix EPC US LLC:2221 NB - Waverly West - 63.82MW - Update plant level PSSE model</t>
-  </si>
-  <si>
-    <t>energyRe Services, LLC:2213NB - Barn Perch-Dynamic model package for a Solar project in PJM footprint</t>
-  </si>
-  <si>
-    <t>Enerzinx LLC:2222B - IEEE2800 Guidelines Compliance by utilities</t>
-  </si>
-  <si>
-    <t>Enerzinx LLC:2223 B - SSAT Tool Research</t>
-  </si>
-  <si>
     <t>Go Green USA America Corp:2196NB - PSSE Model Development &amp; PREPA MTR compliance validation 80MW Naguabo</t>
   </si>
   <si>
@@ -388,6 +391,9 @@
     <t>MN8 Energy:2233 B - Mustang PV project PSCAD model</t>
   </si>
   <si>
+    <t>Ohmium International Inc.:2226 B - General Technical Support for all modelling efforts</t>
+  </si>
+  <si>
     <t>Pure Power Engineering Inc.:2179 NB - DTE Interconnection Application Package for 10MW plant</t>
   </si>
   <si>
@@ -454,10 +460,10 @@
     <t>Dr. Amritpal Singh</t>
   </si>
   <si>
+    <t>Exceeded</t>
+  </si>
+  <si>
     <t>Within Budget</t>
-  </si>
-  <si>
-    <t>Exceeded</t>
   </si>
 </sst>
 </file>
@@ -849,16 +855,16 @@
         <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>9312.5</v>
       </c>
       <c r="E2">
         <v>7200</v>
       </c>
       <c r="F2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -869,16 +875,16 @@
         <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D3">
-        <v>13931.2499925</v>
+        <v>19243.7499925</v>
       </c>
       <c r="E3">
         <v>10000</v>
       </c>
       <c r="F3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -889,7 +895,7 @@
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D4">
         <v>7212.5</v>
@@ -898,7 +904,7 @@
         <v>8500</v>
       </c>
       <c r="F4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -909,16 +915,16 @@
         <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D5">
-        <v>23537.5</v>
+        <v>28400</v>
       </c>
       <c r="E5">
         <v>20000</v>
       </c>
       <c r="F5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -929,7 +935,7 @@
         <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D6">
         <v>4412.5</v>
@@ -938,7 +944,7 @@
         <v>7400</v>
       </c>
       <c r="F6" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -949,16 +955,16 @@
         <v>78</v>
       </c>
       <c r="C7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D7">
-        <v>27900</v>
+        <v>46650</v>
       </c>
       <c r="E7">
         <v>24000</v>
       </c>
       <c r="F7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -969,16 +975,16 @@
         <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D8">
-        <v>12012.5</v>
+        <v>8412.5</v>
       </c>
       <c r="E8">
         <v>7400</v>
       </c>
       <c r="F8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -989,7 +995,7 @@
         <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D9">
         <v>5100</v>
@@ -998,7 +1004,7 @@
         <v>7400</v>
       </c>
       <c r="F9" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1009,16 +1015,16 @@
         <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D10">
-        <v>25468.75</v>
+        <v>25293.75</v>
       </c>
       <c r="E10">
         <v>7400</v>
       </c>
       <c r="F10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1029,16 +1035,16 @@
         <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D11">
-        <v>7254.166670000001</v>
+        <v>8004.166670000001</v>
       </c>
       <c r="E11">
         <v>7400</v>
       </c>
       <c r="F11" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1049,16 +1055,16 @@
         <v>83</v>
       </c>
       <c r="C12" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D12">
-        <v>6400</v>
+        <v>8800</v>
       </c>
       <c r="E12">
         <v>10000</v>
       </c>
       <c r="F12" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1069,16 +1075,16 @@
         <v>84</v>
       </c>
       <c r="C13" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D13">
-        <v>10332.500015</v>
+        <v>13232.500015</v>
       </c>
       <c r="E13">
         <v>5000</v>
       </c>
       <c r="F13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1089,7 +1095,7 @@
         <v>85</v>
       </c>
       <c r="C14" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D14">
         <v>3387.5</v>
@@ -1098,7 +1104,7 @@
         <v>3500</v>
       </c>
       <c r="F14" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1109,7 +1115,7 @@
         <v>86</v>
       </c>
       <c r="C15" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D15">
         <v>10700</v>
@@ -1118,7 +1124,7 @@
         <v>3500</v>
       </c>
       <c r="F15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1129,16 +1135,16 @@
         <v>87</v>
       </c>
       <c r="C16" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D16">
-        <v>4549.9999925</v>
+        <v>6174.9999925</v>
       </c>
       <c r="E16">
         <v>11700</v>
       </c>
       <c r="F16" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1149,7 +1155,7 @@
         <v>88</v>
       </c>
       <c r="C17" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D17">
         <v>6850</v>
@@ -1158,7 +1164,7 @@
         <v>4000</v>
       </c>
       <c r="F17" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1169,16 +1175,16 @@
         <v>89</v>
       </c>
       <c r="C18" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D18">
-        <v>13187.5</v>
+        <v>13037.5</v>
       </c>
       <c r="E18">
         <v>8000</v>
       </c>
       <c r="F18" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1189,16 +1195,16 @@
         <v>90</v>
       </c>
       <c r="C19" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D19">
-        <v>16562.5</v>
+        <v>50300</v>
       </c>
       <c r="E19">
         <v>27557.54</v>
       </c>
       <c r="F19" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1209,16 +1215,16 @@
         <v>91</v>
       </c>
       <c r="C20" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D20">
-        <v>18908.333325</v>
+        <v>34689.583325</v>
       </c>
       <c r="E20">
         <v>27557.54</v>
       </c>
       <c r="F20" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1229,16 +1235,16 @@
         <v>92</v>
       </c>
       <c r="C21" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D21">
-        <v>13825</v>
+        <v>55850</v>
       </c>
       <c r="E21">
         <v>32676.92</v>
       </c>
       <c r="F21" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1249,16 +1255,16 @@
         <v>93</v>
       </c>
       <c r="C22" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D22">
-        <v>6850</v>
+        <v>29131.25</v>
       </c>
       <c r="E22">
         <v>30000</v>
       </c>
       <c r="F22" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1269,13 +1275,13 @@
         <v>94</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>41700</v>
       </c>
       <c r="E23">
         <v>8000</v>
       </c>
       <c r="F23" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1286,16 +1292,16 @@
         <v>95</v>
       </c>
       <c r="C24" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D24">
-        <v>4412.5</v>
+        <v>5437.5</v>
       </c>
       <c r="E24">
         <v>7800</v>
       </c>
       <c r="F24" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1306,7 +1312,7 @@
         <v>96</v>
       </c>
       <c r="C25" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D25">
         <v>2375</v>
@@ -1315,7 +1321,7 @@
         <v>12036</v>
       </c>
       <c r="F25" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1326,7 +1332,7 @@
         <v>97</v>
       </c>
       <c r="C26" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D26">
         <v>4325</v>
@@ -1335,7 +1341,7 @@
         <v>5000</v>
       </c>
       <c r="F26" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1352,7 +1358,7 @@
         <v>4000</v>
       </c>
       <c r="F27" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1363,7 +1369,7 @@
         <v>99</v>
       </c>
       <c r="C28" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D28">
         <v>4575</v>
@@ -1372,7 +1378,7 @@
         <v>9500</v>
       </c>
       <c r="F28" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1383,7 +1389,7 @@
         <v>100</v>
       </c>
       <c r="C29" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D29">
         <v>8887.5</v>
@@ -1392,7 +1398,7 @@
         <v>9500</v>
       </c>
       <c r="F29" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1403,7 +1409,7 @@
         <v>101</v>
       </c>
       <c r="C30" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D30">
         <v>5600</v>
@@ -1412,7 +1418,7 @@
         <v>9500</v>
       </c>
       <c r="F30" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1423,16 +1429,16 @@
         <v>102</v>
       </c>
       <c r="C31" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D31">
-        <v>5925</v>
+        <v>5862.5</v>
       </c>
       <c r="E31">
         <v>9500</v>
       </c>
       <c r="F31" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1443,16 +1449,16 @@
         <v>103</v>
       </c>
       <c r="C32" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D32">
-        <v>6925</v>
+        <v>6550</v>
       </c>
       <c r="E32">
         <v>9500</v>
       </c>
       <c r="F32" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1463,16 +1469,16 @@
         <v>104</v>
       </c>
       <c r="C33" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D33">
-        <v>9300</v>
+        <v>6550</v>
       </c>
       <c r="E33">
         <v>4200</v>
       </c>
       <c r="F33" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1483,13 +1489,13 @@
         <v>105</v>
       </c>
       <c r="D34">
-        <v>6700</v>
+        <v>7000</v>
       </c>
       <c r="E34">
         <v>4200</v>
       </c>
       <c r="F34" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1500,16 +1506,16 @@
         <v>106</v>
       </c>
       <c r="C35" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D35">
-        <v>7275</v>
+        <v>9475</v>
       </c>
       <c r="E35">
         <v>8900</v>
       </c>
       <c r="F35" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1520,16 +1526,16 @@
         <v>107</v>
       </c>
       <c r="C36" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D36">
-        <v>1525</v>
+        <v>5712.5</v>
       </c>
       <c r="E36">
         <v>2000</v>
       </c>
       <c r="F36" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1540,7 +1546,7 @@
         <v>108</v>
       </c>
       <c r="C37" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D37">
         <v>125</v>
@@ -1549,7 +1555,7 @@
         <v>2500</v>
       </c>
       <c r="F37" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1560,7 +1566,7 @@
         <v>109</v>
       </c>
       <c r="C38" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D38">
         <v>5112.5</v>
@@ -1569,7 +1575,7 @@
         <v>11000</v>
       </c>
       <c r="F38" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1580,16 +1586,16 @@
         <v>110</v>
       </c>
       <c r="C39" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D39">
-        <v>8125</v>
+        <v>10037.5</v>
       </c>
       <c r="E39">
         <v>7800</v>
       </c>
       <c r="F39" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1600,16 +1606,16 @@
         <v>111</v>
       </c>
       <c r="C40" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D40">
-        <v>7150</v>
+        <v>9575</v>
       </c>
       <c r="E40">
         <v>7800</v>
       </c>
       <c r="F40" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1620,16 +1626,16 @@
         <v>112</v>
       </c>
       <c r="C41" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D41">
-        <v>7775</v>
+        <v>7825</v>
       </c>
       <c r="E41">
         <v>7800</v>
       </c>
       <c r="F41" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1640,16 +1646,16 @@
         <v>113</v>
       </c>
       <c r="C42" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D42">
-        <v>7925</v>
+        <v>18412.5</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1660,13 +1666,13 @@
         <v>114</v>
       </c>
       <c r="D43">
-        <v>9700</v>
+        <v>10200</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1674,10 +1680,10 @@
         <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="C44" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1686,7 +1692,7 @@
         <v>7500</v>
       </c>
       <c r="F44" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1694,19 +1700,19 @@
         <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C45" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D45">
-        <v>26250</v>
+        <v>34387.5</v>
       </c>
       <c r="E45">
         <v>50800</v>
       </c>
       <c r="F45" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1714,10 +1720,10 @@
         <v>50</v>
       </c>
       <c r="B46" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C46" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D46">
         <v>11482.5</v>
@@ -1726,7 +1732,7 @@
         <v>16368</v>
       </c>
       <c r="F46" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1734,19 +1740,19 @@
         <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C47" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D47">
-        <v>1225</v>
+        <v>912.5</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1754,16 +1760,16 @@
         <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D48">
-        <v>750</v>
+        <v>1650</v>
       </c>
       <c r="E48">
         <v>3185.73</v>
       </c>
       <c r="F48" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1771,10 +1777,10 @@
         <v>53</v>
       </c>
       <c r="B49" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="C49" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -1783,7 +1789,7 @@
         <v>42000</v>
       </c>
       <c r="F49" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1791,10 +1797,10 @@
         <v>54</v>
       </c>
       <c r="B50" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C50" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D50">
         <v>4950</v>
@@ -1803,7 +1809,7 @@
         <v>2059.77</v>
       </c>
       <c r="F50" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1811,19 +1817,19 @@
         <v>55</v>
       </c>
       <c r="B51" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C51" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D51">
-        <v>7075</v>
+        <v>16762.5</v>
       </c>
       <c r="E51">
         <v>6000</v>
       </c>
       <c r="F51" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1831,19 +1837,19 @@
         <v>56</v>
       </c>
       <c r="B52" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C52" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D52">
-        <v>18756.2499925</v>
+        <v>33556.2499925</v>
       </c>
       <c r="E52">
         <v>6400</v>
       </c>
       <c r="F52" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1851,19 +1857,19 @@
         <v>57</v>
       </c>
       <c r="B53" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C53" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D53">
-        <v>56.25</v>
+        <v>775</v>
       </c>
       <c r="E53">
         <v>20000</v>
       </c>
       <c r="F53" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1871,19 +1877,19 @@
         <v>58</v>
       </c>
       <c r="B54" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C54" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D54">
-        <v>7062.5</v>
+        <v>45012.5</v>
       </c>
       <c r="E54">
         <v>27000</v>
       </c>
       <c r="F54" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1891,19 +1897,19 @@
         <v>59</v>
       </c>
       <c r="B55" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="C55" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>281.25</v>
       </c>
       <c r="E55">
         <v>10000</v>
       </c>
       <c r="F55" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1911,19 +1917,19 @@
         <v>60</v>
       </c>
       <c r="B56" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C56" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D56">
-        <v>2600</v>
+        <v>3350</v>
       </c>
       <c r="E56">
         <v>2000</v>
       </c>
       <c r="F56" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1931,10 +1937,10 @@
         <v>61</v>
       </c>
       <c r="B57" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C57" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D57">
         <v>2700</v>
@@ -1943,7 +1949,7 @@
         <v>6000</v>
       </c>
       <c r="F57" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1951,19 +1957,19 @@
         <v>62</v>
       </c>
       <c r="B58" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C58" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D58">
-        <v>21625</v>
+        <v>41662.5</v>
       </c>
       <c r="E58">
         <v>38000</v>
       </c>
       <c r="F58" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1971,10 +1977,10 @@
         <v>63</v>
       </c>
       <c r="B59" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C59" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D59">
         <v>9787.5</v>
@@ -1983,7 +1989,7 @@
         <v>8500</v>
       </c>
       <c r="F59" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1991,10 +1997,10 @@
         <v>64</v>
       </c>
       <c r="B60" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="C60" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -2003,7 +2009,7 @@
         <v>80004</v>
       </c>
       <c r="F60" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2011,19 +2017,19 @@
         <v>65</v>
       </c>
       <c r="B61" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C61" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D61">
-        <v>706.25</v>
+        <v>20897.91667</v>
       </c>
       <c r="E61">
         <v>35200</v>
       </c>
       <c r="F61" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2031,19 +2037,19 @@
         <v>66</v>
       </c>
       <c r="B62" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C62" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D62">
-        <v>362.5</v>
+        <v>20612.5</v>
       </c>
       <c r="E62">
         <v>40100</v>
       </c>
       <c r="F62" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2051,10 +2057,10 @@
         <v>67</v>
       </c>
       <c r="B63" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C63" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D63">
         <v>50450</v>
@@ -2063,7 +2069,7 @@
         <v>14953.87</v>
       </c>
       <c r="F63" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2071,19 +2077,19 @@
         <v>68</v>
       </c>
       <c r="B64" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C64" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D64">
-        <v>36950</v>
+        <v>51675</v>
       </c>
       <c r="E64">
         <v>14142.34</v>
       </c>
       <c r="F64" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2091,19 +2097,19 @@
         <v>69</v>
       </c>
       <c r="B65" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C65" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D65">
-        <v>13450</v>
+        <v>20275</v>
       </c>
       <c r="E65">
         <v>9500</v>
       </c>
       <c r="F65" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2111,19 +2117,19 @@
         <v>70</v>
       </c>
       <c r="B66" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C66" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D66">
-        <v>3462.5</v>
+        <v>15012.5</v>
       </c>
       <c r="E66">
         <v>9500</v>
       </c>
       <c r="F66" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2131,19 +2137,19 @@
         <v>71</v>
       </c>
       <c r="B67" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C67" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D67">
-        <v>8912.5</v>
+        <v>3662.5</v>
       </c>
       <c r="E67">
         <v>5000</v>
       </c>
       <c r="F67" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2151,19 +2157,19 @@
         <v>72</v>
       </c>
       <c r="B68" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C68" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D68">
-        <v>13125</v>
+        <v>12875</v>
       </c>
       <c r="E68">
         <v>7800</v>
       </c>
       <c r="F68" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/Budget_Comparison.xlsx
+++ b/Budget_Comparison.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="151">
   <si>
     <t>Num</t>
   </si>
@@ -404,6 +404,9 @@
   </si>
   <si>
     <t>Q Cells USA Corporation:2190 NB - Bracero Pecan Storage-update the PSSE Dynamics &amp; verify NOGRR-245</t>
+  </si>
+  <si>
+    <t>ReNew Power Private Ltd.:2224 NB - Hybrid-6 Gooty Project - System studies</t>
   </si>
   <si>
     <t>SunRaycer LLC:2227 B - Marcelina Storage - Generator Interconnection Application Package</t>
@@ -855,7 +858,7 @@
         <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D2">
         <v>9312.5</v>
@@ -864,7 +867,7 @@
         <v>7200</v>
       </c>
       <c r="F2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -875,16 +878,16 @@
         <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D3">
-        <v>19243.7499925</v>
+        <v>20443.7499925</v>
       </c>
       <c r="E3">
         <v>10000</v>
       </c>
       <c r="F3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -895,7 +898,7 @@
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D4">
         <v>7212.5</v>
@@ -904,7 +907,7 @@
         <v>8500</v>
       </c>
       <c r="F4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -915,16 +918,16 @@
         <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D5">
-        <v>28400</v>
+        <v>31575</v>
       </c>
       <c r="E5">
         <v>20000</v>
       </c>
       <c r="F5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -935,7 +938,7 @@
         <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D6">
         <v>4412.5</v>
@@ -944,7 +947,7 @@
         <v>7400</v>
       </c>
       <c r="F6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -955,16 +958,16 @@
         <v>78</v>
       </c>
       <c r="C7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D7">
-        <v>46650</v>
+        <v>47400</v>
       </c>
       <c r="E7">
         <v>24000</v>
       </c>
       <c r="F7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -975,7 +978,7 @@
         <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D8">
         <v>8412.5</v>
@@ -984,7 +987,7 @@
         <v>7400</v>
       </c>
       <c r="F8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -995,7 +998,7 @@
         <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D9">
         <v>5100</v>
@@ -1004,7 +1007,7 @@
         <v>7400</v>
       </c>
       <c r="F9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1015,7 +1018,7 @@
         <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D10">
         <v>25293.75</v>
@@ -1024,7 +1027,7 @@
         <v>7400</v>
       </c>
       <c r="F10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1035,7 +1038,7 @@
         <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D11">
         <v>8004.166670000001</v>
@@ -1044,7 +1047,7 @@
         <v>7400</v>
       </c>
       <c r="F11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1055,7 +1058,7 @@
         <v>83</v>
       </c>
       <c r="C12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D12">
         <v>8800</v>
@@ -1064,7 +1067,7 @@
         <v>10000</v>
       </c>
       <c r="F12" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1075,7 +1078,7 @@
         <v>84</v>
       </c>
       <c r="C13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D13">
         <v>13232.500015</v>
@@ -1084,7 +1087,7 @@
         <v>5000</v>
       </c>
       <c r="F13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1095,7 +1098,7 @@
         <v>85</v>
       </c>
       <c r="C14" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D14">
         <v>3387.5</v>
@@ -1104,7 +1107,7 @@
         <v>3500</v>
       </c>
       <c r="F14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1115,7 +1118,7 @@
         <v>86</v>
       </c>
       <c r="C15" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D15">
         <v>10700</v>
@@ -1124,7 +1127,7 @@
         <v>3500</v>
       </c>
       <c r="F15" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1135,16 +1138,16 @@
         <v>87</v>
       </c>
       <c r="C16" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D16">
-        <v>6174.9999925</v>
+        <v>7412.4999925</v>
       </c>
       <c r="E16">
         <v>11700</v>
       </c>
       <c r="F16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1155,7 +1158,7 @@
         <v>88</v>
       </c>
       <c r="C17" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D17">
         <v>6850</v>
@@ -1164,7 +1167,7 @@
         <v>4000</v>
       </c>
       <c r="F17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1175,7 +1178,7 @@
         <v>89</v>
       </c>
       <c r="C18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D18">
         <v>13037.5</v>
@@ -1184,7 +1187,7 @@
         <v>8000</v>
       </c>
       <c r="F18" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1195,16 +1198,16 @@
         <v>90</v>
       </c>
       <c r="C19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D19">
-        <v>50300</v>
+        <v>59425</v>
       </c>
       <c r="E19">
         <v>27557.54</v>
       </c>
       <c r="F19" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1215,16 +1218,16 @@
         <v>91</v>
       </c>
       <c r="C20" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D20">
-        <v>34689.583325</v>
+        <v>43802.083325</v>
       </c>
       <c r="E20">
         <v>27557.54</v>
       </c>
       <c r="F20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1235,16 +1238,16 @@
         <v>92</v>
       </c>
       <c r="C21" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D21">
-        <v>55850</v>
+        <v>68437.5</v>
       </c>
       <c r="E21">
         <v>32676.92</v>
       </c>
       <c r="F21" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1255,16 +1258,16 @@
         <v>93</v>
       </c>
       <c r="C22" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D22">
-        <v>29131.25</v>
+        <v>29456.25</v>
       </c>
       <c r="E22">
         <v>30000</v>
       </c>
       <c r="F22" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1275,13 +1278,13 @@
         <v>94</v>
       </c>
       <c r="D23">
-        <v>41700</v>
+        <v>54149.9999925</v>
       </c>
       <c r="E23">
         <v>8000</v>
       </c>
       <c r="F23" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1292,16 +1295,16 @@
         <v>95</v>
       </c>
       <c r="C24" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D24">
-        <v>5437.5</v>
+        <v>5637.5</v>
       </c>
       <c r="E24">
         <v>7800</v>
       </c>
       <c r="F24" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1312,7 +1315,7 @@
         <v>96</v>
       </c>
       <c r="C25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D25">
         <v>2375</v>
@@ -1321,7 +1324,7 @@
         <v>12036</v>
       </c>
       <c r="F25" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1332,7 +1335,7 @@
         <v>97</v>
       </c>
       <c r="C26" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D26">
         <v>4325</v>
@@ -1341,7 +1344,7 @@
         <v>5000</v>
       </c>
       <c r="F26" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1358,7 +1361,7 @@
         <v>4000</v>
       </c>
       <c r="F27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1369,7 +1372,7 @@
         <v>99</v>
       </c>
       <c r="C28" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D28">
         <v>4575</v>
@@ -1378,7 +1381,7 @@
         <v>9500</v>
       </c>
       <c r="F28" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1389,7 +1392,7 @@
         <v>100</v>
       </c>
       <c r="C29" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D29">
         <v>8887.5</v>
@@ -1398,7 +1401,7 @@
         <v>9500</v>
       </c>
       <c r="F29" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1409,7 +1412,7 @@
         <v>101</v>
       </c>
       <c r="C30" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D30">
         <v>5600</v>
@@ -1418,7 +1421,7 @@
         <v>9500</v>
       </c>
       <c r="F30" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1429,7 +1432,7 @@
         <v>102</v>
       </c>
       <c r="C31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D31">
         <v>5862.5</v>
@@ -1438,7 +1441,7 @@
         <v>9500</v>
       </c>
       <c r="F31" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1449,7 +1452,7 @@
         <v>103</v>
       </c>
       <c r="C32" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D32">
         <v>6550</v>
@@ -1458,7 +1461,7 @@
         <v>9500</v>
       </c>
       <c r="F32" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1469,7 +1472,7 @@
         <v>104</v>
       </c>
       <c r="C33" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D33">
         <v>6550</v>
@@ -1478,7 +1481,7 @@
         <v>4200</v>
       </c>
       <c r="F33" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1495,7 +1498,7 @@
         <v>4200</v>
       </c>
       <c r="F34" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1506,7 +1509,7 @@
         <v>106</v>
       </c>
       <c r="C35" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D35">
         <v>9475</v>
@@ -1515,7 +1518,7 @@
         <v>8900</v>
       </c>
       <c r="F35" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1526,16 +1529,16 @@
         <v>107</v>
       </c>
       <c r="C36" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D36">
-        <v>5712.5</v>
+        <v>5775</v>
       </c>
       <c r="E36">
         <v>2000</v>
       </c>
       <c r="F36" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1546,7 +1549,7 @@
         <v>108</v>
       </c>
       <c r="C37" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D37">
         <v>125</v>
@@ -1555,7 +1558,7 @@
         <v>2500</v>
       </c>
       <c r="F37" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1566,7 +1569,7 @@
         <v>109</v>
       </c>
       <c r="C38" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D38">
         <v>5112.5</v>
@@ -1575,7 +1578,7 @@
         <v>11000</v>
       </c>
       <c r="F38" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1586,16 +1589,16 @@
         <v>110</v>
       </c>
       <c r="C39" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D39">
-        <v>10037.5</v>
+        <v>10237.5</v>
       </c>
       <c r="E39">
         <v>7800</v>
       </c>
       <c r="F39" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1606,7 +1609,7 @@
         <v>111</v>
       </c>
       <c r="C40" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D40">
         <v>9575</v>
@@ -1615,7 +1618,7 @@
         <v>7800</v>
       </c>
       <c r="F40" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1626,7 +1629,7 @@
         <v>112</v>
       </c>
       <c r="C41" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D41">
         <v>7825</v>
@@ -1635,7 +1638,7 @@
         <v>7800</v>
       </c>
       <c r="F41" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1646,7 +1649,7 @@
         <v>113</v>
       </c>
       <c r="C42" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D42">
         <v>18412.5</v>
@@ -1655,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1666,13 +1669,13 @@
         <v>114</v>
       </c>
       <c r="D43">
-        <v>10200</v>
+        <v>11537.5</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1683,7 +1686,7 @@
         <v>115</v>
       </c>
       <c r="C44" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1692,7 +1695,7 @@
         <v>7500</v>
       </c>
       <c r="F44" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1703,7 +1706,7 @@
         <v>116</v>
       </c>
       <c r="C45" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D45">
         <v>34387.5</v>
@@ -1712,7 +1715,7 @@
         <v>50800</v>
       </c>
       <c r="F45" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1723,7 +1726,7 @@
         <v>117</v>
       </c>
       <c r="C46" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46">
         <v>11482.5</v>
@@ -1732,7 +1735,7 @@
         <v>16368</v>
       </c>
       <c r="F46" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1743,7 +1746,7 @@
         <v>118</v>
       </c>
       <c r="C47" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D47">
         <v>912.5</v>
@@ -1752,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1763,13 +1766,13 @@
         <v>119</v>
       </c>
       <c r="D48">
-        <v>1650</v>
+        <v>1762.5</v>
       </c>
       <c r="E48">
         <v>3185.73</v>
       </c>
       <c r="F48" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1780,7 +1783,7 @@
         <v>115</v>
       </c>
       <c r="C49" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -1789,7 +1792,7 @@
         <v>42000</v>
       </c>
       <c r="F49" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1800,7 +1803,7 @@
         <v>120</v>
       </c>
       <c r="C50" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D50">
         <v>4950</v>
@@ -1809,7 +1812,7 @@
         <v>2059.77</v>
       </c>
       <c r="F50" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1820,16 +1823,16 @@
         <v>121</v>
       </c>
       <c r="C51" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D51">
-        <v>16762.5</v>
+        <v>17662.5</v>
       </c>
       <c r="E51">
         <v>6000</v>
       </c>
       <c r="F51" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1840,16 +1843,16 @@
         <v>122</v>
       </c>
       <c r="C52" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D52">
-        <v>33556.2499925</v>
+        <v>34856.2499925</v>
       </c>
       <c r="E52">
         <v>6400</v>
       </c>
       <c r="F52" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1860,16 +1863,16 @@
         <v>123</v>
       </c>
       <c r="C53" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D53">
-        <v>775</v>
+        <v>887.5</v>
       </c>
       <c r="E53">
         <v>20000</v>
       </c>
       <c r="F53" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1880,16 +1883,16 @@
         <v>124</v>
       </c>
       <c r="C54" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D54">
-        <v>45012.5</v>
+        <v>46737.5</v>
       </c>
       <c r="E54">
         <v>27000</v>
       </c>
       <c r="F54" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1900,7 +1903,7 @@
         <v>125</v>
       </c>
       <c r="C55" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D55">
         <v>281.25</v>
@@ -1909,7 +1912,7 @@
         <v>10000</v>
       </c>
       <c r="F55" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1920,16 +1923,16 @@
         <v>126</v>
       </c>
       <c r="C56" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D56">
-        <v>3350</v>
+        <v>4475</v>
       </c>
       <c r="E56">
         <v>2000</v>
       </c>
       <c r="F56" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1940,7 +1943,7 @@
         <v>127</v>
       </c>
       <c r="C57" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D57">
         <v>2700</v>
@@ -1949,7 +1952,7 @@
         <v>6000</v>
       </c>
       <c r="F57" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1960,16 +1963,16 @@
         <v>128</v>
       </c>
       <c r="C58" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D58">
-        <v>41662.5</v>
+        <v>41412.5</v>
       </c>
       <c r="E58">
         <v>38000</v>
       </c>
       <c r="F58" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1980,7 +1983,7 @@
         <v>129</v>
       </c>
       <c r="C59" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D59">
         <v>9787.5</v>
@@ -1989,7 +1992,7 @@
         <v>8500</v>
       </c>
       <c r="F59" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1997,19 +2000,19 @@
         <v>64</v>
       </c>
       <c r="B60" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="C60" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>162.5</v>
       </c>
       <c r="E60">
         <v>80004</v>
       </c>
       <c r="F60" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2017,19 +2020,19 @@
         <v>65</v>
       </c>
       <c r="B61" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C61" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D61">
-        <v>20897.91667</v>
+        <v>34729.16667</v>
       </c>
       <c r="E61">
         <v>35200</v>
       </c>
       <c r="F61" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2037,19 +2040,19 @@
         <v>66</v>
       </c>
       <c r="B62" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C62" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D62">
-        <v>20612.5</v>
+        <v>36356.25</v>
       </c>
       <c r="E62">
         <v>40100</v>
       </c>
       <c r="F62" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2057,19 +2060,19 @@
         <v>67</v>
       </c>
       <c r="B63" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C63" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D63">
-        <v>50450</v>
+        <v>58012.5</v>
       </c>
       <c r="E63">
         <v>14953.87</v>
       </c>
       <c r="F63" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2077,19 +2080,19 @@
         <v>68</v>
       </c>
       <c r="B64" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C64" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D64">
-        <v>51675</v>
+        <v>51950</v>
       </c>
       <c r="E64">
         <v>14142.34</v>
       </c>
       <c r="F64" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2097,10 +2100,10 @@
         <v>69</v>
       </c>
       <c r="B65" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C65" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D65">
         <v>20275</v>
@@ -2109,7 +2112,7 @@
         <v>9500</v>
       </c>
       <c r="F65" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2117,19 +2120,19 @@
         <v>70</v>
       </c>
       <c r="B66" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C66" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D66">
-        <v>15012.5</v>
+        <v>15575</v>
       </c>
       <c r="E66">
         <v>9500</v>
       </c>
       <c r="F66" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2137,19 +2140,19 @@
         <v>71</v>
       </c>
       <c r="B67" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C67" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D67">
-        <v>3662.5</v>
+        <v>3962.5</v>
       </c>
       <c r="E67">
         <v>5000</v>
       </c>
       <c r="F67" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2157,10 +2160,10 @@
         <v>72</v>
       </c>
       <c r="B68" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C68" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D68">
         <v>12875</v>
@@ -2169,7 +2172,7 @@
         <v>7800</v>
       </c>
       <c r="F68" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/Budget_Comparison.xlsx
+++ b/Budget_Comparison.xlsx
@@ -1201,7 +1201,7 @@
         <v>141</v>
       </c>
       <c r="D19">
-        <v>59425</v>
+        <v>63700</v>
       </c>
       <c r="E19">
         <v>27557.54</v>
@@ -1532,7 +1532,7 @@
         <v>141</v>
       </c>
       <c r="D36">
-        <v>5775</v>
+        <v>5962.5</v>
       </c>
       <c r="E36">
         <v>2000</v>
@@ -2066,7 +2066,7 @@
         <v>140</v>
       </c>
       <c r="D63">
-        <v>58012.5</v>
+        <v>58162.5</v>
       </c>
       <c r="E63">
         <v>14953.87</v>

--- a/Budget_Comparison.xlsx
+++ b/Budget_Comparison.xlsx
@@ -373,7 +373,7 @@
     <t>GSMT-Enerzinx Australia JV Pty Ltd:2228 B - Vertiv UPS PSCAD Model RFI</t>
   </si>
   <si>
-    <t>GSMT-Enerzinx Australia JV Pty Ltd:2236 NB - PXiSE PSSE UDM Model Update</t>
+    <t>GSMT-Enerzinx Australia JV Pty Ltd:2236 NB - Yokogawa - PXiSE PSSE UDM Model Update</t>
   </si>
   <si>
     <t>JSW Energy Limited:2206NB- 540MW Wind Project, Tuticorin-Review of reactive power capability study</t>
@@ -921,7 +921,7 @@
         <v>140</v>
       </c>
       <c r="D5">
-        <v>31575</v>
+        <v>34012.5</v>
       </c>
       <c r="E5">
         <v>20000</v>
@@ -1201,7 +1201,7 @@
         <v>141</v>
       </c>
       <c r="D19">
-        <v>63700</v>
+        <v>68325</v>
       </c>
       <c r="E19">
         <v>27557.54</v>
@@ -1221,7 +1221,7 @@
         <v>139</v>
       </c>
       <c r="D20">
-        <v>43802.083325</v>
+        <v>48402.083325</v>
       </c>
       <c r="E20">
         <v>27557.54</v>
@@ -1241,7 +1241,7 @@
         <v>142</v>
       </c>
       <c r="D21">
-        <v>68437.5</v>
+        <v>70212.5</v>
       </c>
       <c r="E21">
         <v>32676.92</v>
@@ -1826,7 +1826,7 @@
         <v>140</v>
       </c>
       <c r="D51">
-        <v>17662.5</v>
+        <v>18287.5</v>
       </c>
       <c r="E51">
         <v>6000</v>
@@ -1846,7 +1846,7 @@
         <v>143</v>
       </c>
       <c r="D52">
-        <v>34856.2499925</v>
+        <v>36356.2499925</v>
       </c>
       <c r="E52">
         <v>6400</v>
@@ -2006,7 +2006,7 @@
         <v>139</v>
       </c>
       <c r="D60">
-        <v>162.5</v>
+        <v>212.5</v>
       </c>
       <c r="E60">
         <v>80004</v>
@@ -2026,13 +2026,13 @@
         <v>142</v>
       </c>
       <c r="D61">
-        <v>34729.16667</v>
+        <v>35529.16667</v>
       </c>
       <c r="E61">
         <v>35200</v>
       </c>
       <c r="F61" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2046,13 +2046,13 @@
         <v>139</v>
       </c>
       <c r="D62">
-        <v>36356.25</v>
+        <v>40256.25</v>
       </c>
       <c r="E62">
         <v>40100</v>
       </c>
       <c r="F62" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2086,7 +2086,7 @@
         <v>142</v>
       </c>
       <c r="D64">
-        <v>51950</v>
+        <v>52062.5</v>
       </c>
       <c r="E64">
         <v>14142.34</v>

--- a/Budget_Comparison.xlsx
+++ b/Budget_Comparison.xlsx
@@ -1201,7 +1201,7 @@
         <v>141</v>
       </c>
       <c r="D19">
-        <v>68325</v>
+        <v>72437.5</v>
       </c>
       <c r="E19">
         <v>27557.54</v>
@@ -1221,7 +1221,7 @@
         <v>139</v>
       </c>
       <c r="D20">
-        <v>48402.083325</v>
+        <v>56002.083325</v>
       </c>
       <c r="E20">
         <v>27557.54</v>
@@ -1241,7 +1241,7 @@
         <v>142</v>
       </c>
       <c r="D21">
-        <v>70212.5</v>
+        <v>72262.5</v>
       </c>
       <c r="E21">
         <v>32676.92</v>
@@ -1261,7 +1261,7 @@
         <v>142</v>
       </c>
       <c r="D22">
-        <v>29456.25</v>
+        <v>29806.25</v>
       </c>
       <c r="E22">
         <v>30000</v>
@@ -1355,7 +1355,7 @@
         <v>98</v>
       </c>
       <c r="D27">
-        <v>1725</v>
+        <v>3775</v>
       </c>
       <c r="E27">
         <v>4000</v>
@@ -1632,7 +1632,7 @@
         <v>146</v>
       </c>
       <c r="D41">
-        <v>7825</v>
+        <v>7937.5</v>
       </c>
       <c r="E41">
         <v>7800</v>
@@ -1846,7 +1846,7 @@
         <v>143</v>
       </c>
       <c r="D52">
-        <v>36356.2499925</v>
+        <v>39156.2499925</v>
       </c>
       <c r="E52">
         <v>6400</v>
@@ -1866,7 +1866,7 @@
         <v>146</v>
       </c>
       <c r="D53">
-        <v>887.5</v>
+        <v>1000</v>
       </c>
       <c r="E53">
         <v>20000</v>
@@ -2006,7 +2006,7 @@
         <v>139</v>
       </c>
       <c r="D60">
-        <v>212.5</v>
+        <v>1375</v>
       </c>
       <c r="E60">
         <v>80004</v>
@@ -2026,7 +2026,7 @@
         <v>142</v>
       </c>
       <c r="D61">
-        <v>35529.16667</v>
+        <v>35929.16667</v>
       </c>
       <c r="E61">
         <v>35200</v>
@@ -2046,7 +2046,7 @@
         <v>139</v>
       </c>
       <c r="D62">
-        <v>40256.25</v>
+        <v>41606.25</v>
       </c>
       <c r="E62">
         <v>40100</v>
@@ -2086,7 +2086,7 @@
         <v>142</v>
       </c>
       <c r="D64">
-        <v>52062.5</v>
+        <v>52175</v>
       </c>
       <c r="E64">
         <v>14142.34</v>
